--- a/rule2.xlsx
+++ b/rule2.xlsx
@@ -274,7 +274,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,7 +319,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,7 +339,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
